--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.24</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.287</v>
+        <v>15.422</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.134</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.087</v>
+        <v>20.808</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.375</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.535</v>
+        <v>7.93</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.829263735321893</v>
+        <v>14.67289631065438</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.69937186433668</v>
+        <v>16.97396432175328</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.1104308737069</v>
+        <v>26.39839346213703</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.567400511890302</v>
+        <v>0.9971609847125933</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.17719934412373</v>
+        <v>18.8450577631591</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.9312873536791</v>
+        <v>22.84243824796746</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.30535966443594</v>
+        <v>5.455594403558138</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.01254641673471</v>
+        <v>32.33151725335118</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.37793236876605</v>
+        <v>38.12572185835865</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.60816434844315</v>
+        <v>18.82474409263363</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.74411469400528</v>
+        <v>26.29189354838301</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>46.17637630343689</v>
+        <v>27.6370293536864</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.65711621857709</v>
+        <v>14.71609317012736</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.22821859116432</v>
+        <v>16.82532494485672</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>44.46196302612028</v>
+        <v>29.64065439549852</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.07881973489577</v>
+        <v>17.60510932537156</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.28027301671537</v>
+        <v>24.1400519216993</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.72814404052012</v>
+        <v>29.45070190276198</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.872195258939826</v>
+        <v>1.110304991099138</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.78098874161169</v>
+        <v>11.90792712613885</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.59425298498127</v>
+        <v>16.23881314366399</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.93677098623132</v>
+        <v>-1.461511847916832</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.00128953778437</v>
+        <v>22.29129921067564</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.491285836709528</v>
+        <v>16.14582168734519</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.45381237537272</v>
+        <v>27.812967385813</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.85831889233969</v>
+        <v>33.09931341925613</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.351413401386573</v>
+        <v>4.344929426585978</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.06439527569559</v>
+        <v>35.21321800433054</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.81265615863355</v>
+        <v>36.88258667856039</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.21953782979782</v>
+        <v>8.63003860164676</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.01812800743409</v>
+        <v>49.80413849770766</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.37651732324283</v>
+        <v>51.94435340233358</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.53899321731276</v>
+        <v>48.21340735436656</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.69364710926638</v>
+        <v>55.34400949392497</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.12862113389968</v>
+        <v>56.26237912057962</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.45329607254757</v>
+        <v>26.25845365395127</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.154915228466</v>
+        <v>45.15758632759625</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.37313469897384</v>
+        <v>52.90307420891313</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>11.7511999533119</v>
+        <v>21.76772109980449</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.04516851894485</v>
+        <v>39.18756274984231</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.48745053625306</v>
+        <v>42.56237046456219</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.664639674724476</v>
+        <v>7.985558793640223</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.676595693824</v>
+        <v>35.29637970262662</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.4848960657168</v>
+        <v>38.90060443184176</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.86068123647586</v>
+        <v>8.815992463049405</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>37.01672013398407</v>
+        <v>50.51324194434566</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.792833874282486</v>
+        <v>8.178704674778661</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.76170764593552</v>
+        <v>20.77210866882058</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.16528052869704</v>
+        <v>27.73586023901652</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.689704925889549</v>
+        <v>0.841885755236099</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.41059203530627</v>
+        <v>31.83782852333707</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.15863968298758</v>
+        <v>35.7145750095664</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.57286478889331</v>
+        <v>4.866765767465139</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.3778094844667</v>
+        <v>47.05239875705943</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.73515052933433</v>
+        <v>51.2486408640184</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.882380314786</v>
+        <v>48.66919300775805</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.03414337164386</v>
+        <v>54.64007625433456</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>48.47094619077325</v>
+        <v>58.16563430370441</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.77765373188652</v>
+        <v>17.72288377013368</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.49505738485611</v>
+        <v>39.64368944365068</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>46.7093194632368</v>
+        <v>49.38915628022984</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12.05157987049335</v>
+        <v>13.78591258916709</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.35149416952341</v>
+        <v>32.32238118047466</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.79306584579523</v>
+        <v>38.46695513076286</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8.001631597121033</v>
+        <v>3.087101239764777</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.02106777224522</v>
+        <v>31.02518984128458</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.8293387088865</v>
+        <v>37.94191697929928</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19.21257826365404</v>
+        <v>4.297907522000614</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>37.3745538953025</v>
+        <v>47.49965029808412</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7.781898333106584</v>
+        <v>4.257217582675604</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.72739931669685</v>
+        <v>15.68109450955726</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.14452490867662</v>
+        <v>26.86764143136137</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4.604357726115641</v>
+        <v>2.162498129046142</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>23.29673914716668</v>
+        <v>30.98930224866662</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.05881368900429</v>
+        <v>38.19967717136487</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>15.42470868774586</v>
+        <v>3.719674087753802</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.20661625289425</v>
+        <v>42.91684763639512</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37.57767877612737</v>
+        <v>51.23558331914571</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.76031153754884</v>
+        <v>39.31179361834177</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.9154474284005</v>
+        <v>45.5404960149214</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>47.35781175443952</v>
+        <v>51.47773968583918</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>16.70313812505751</v>
+        <v>12.13353613421611</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.38128842640732</v>
+        <v>31.16388660865243</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.62040885458756</v>
+        <v>47.18309330580749</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.03892780783932</v>
+        <v>9.927079595773755</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.31601668702036</v>
+        <v>27.50897604111611</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.77061514861652</v>
+        <v>36.91483678065971</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.913957553616556</v>
+        <v>3.961283858943979</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.90546432486946</v>
+        <v>27.87104907904452</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30.72732742054773</v>
+        <v>37.7239353440604</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.06180734359224</v>
+        <v>1.193496076975009</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.20132405116893</v>
+        <v>40.09051650790241</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39.39710909260992</v>
+        <v>31.24984015703029</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.9134529570337</v>
+        <v>18.71765713879618</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.54089617026404</v>
+        <v>29.2340232043758</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>49.17808033138769</v>
+        <v>33.58202355548856</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.25555168555737</v>
+        <v>5.211453261885463</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>40.70478170310986</v>
+        <v>20.56222949254421</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>47.67791844767611</v>
+        <v>27.91405982744585</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.41335374773038</v>
+        <v>15.43550463076483</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.42725986540535</v>
+        <v>21.72974412875696</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.13013664852131</v>
+        <v>31.26348332629236</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.62606709592625</v>
+        <v>-3.375981446070696</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.56981894860101</v>
+        <v>10.08393106177184</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.55405689587442</v>
+        <v>16.42589883740752</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.33749506212491</v>
+        <v>-3.966445692021274</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.17465432742075</v>
+        <v>24.50217787121652</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.87099086137204</v>
+        <v>39.45473669892259</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48.27649626987937</v>
+        <v>27.1386552251764</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>57.03636501146313</v>
+        <v>39.97249053720434</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>60.81209735880246</v>
+        <v>46.13358874501318</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.5872700522281</v>
+        <v>3.195390690985754</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>51.46065985324848</v>
+        <v>23.62171868825319</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>58.75395514653154</v>
+        <v>36.4901562369195</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.40652052239819</v>
+        <v>58.47006110265188</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>38.8497617022006</v>
+        <v>54.99508121027426</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>47.49535786941898</v>
+        <v>62.30466009245218</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>51.13566499805099</v>
+        <v>65.69233179867177</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.06025156038886</v>
+        <v>24.56687441496584</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>42.64118807343329</v>
+        <v>60.47723543916099</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>49.59960196748526</v>
+        <v>64.1412190751536</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.13957445567814</v>
+        <v>24.04771869124566</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.24712013652356</v>
+        <v>42.52005350450391</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.94383488655603</v>
+        <v>47.00488960953472</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>15.47410260214739</v>
+        <v>9.821781259652679</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.52236754336783</v>
+        <v>43.08724756669302</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>40.50099925578582</v>
+        <v>44.9213798047107</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.32316271421129</v>
+        <v>13.0287617030797</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.2529317037972</v>
+        <v>61.82091050199494</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>51.94274317644197</v>
+        <v>70.69595320832153</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.27625042485035</v>
+        <v>75.8812697891024</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.05403542939584</v>
+        <v>82.95860242173123</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>62.83267552202844</v>
+        <v>86.77793455849346</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.45290740183941</v>
+        <v>33.66302198565513</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>53.45806794030641</v>
+        <v>76.27209155671765</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>60.73765375283341</v>
+        <v>81.31531104859201</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>41.76353441708709</v>
+        <v>58.83782707990974</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>39.19040126437816</v>
+        <v>51.32718202648376</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>47.83259616486251</v>
+        <v>57.10617020831504</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>51.47456324870769</v>
+        <v>63.96818430633812</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.38322464782998</v>
+        <v>16.24920207750292</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42.97924179813884</v>
+        <v>56.31440656106274</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.934149972154</v>
+        <v>62.48848882871987</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.45359368504838</v>
+        <v>17.21463570778477</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.56690578835035</v>
+        <v>37.73616055016797</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.26233666008482</v>
+        <v>44.17970728118685</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>15.82493505857865</v>
+        <v>6.178498726403554</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.88039177657907</v>
+        <v>41.34015091040551</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>40.8584558409578</v>
+        <v>45.4955404614447</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.68944407977581</v>
+        <v>10.14317405327468</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>47.62500577422941</v>
+        <v>61.65573310006711</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>52.31339906197064</v>
+        <v>72.6634457176342</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>50.63016945843402</v>
+        <v>76.98943495836122</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>59.40440043442459</v>
+        <v>82.10115153445422</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>63.1844882373577</v>
+        <v>89.14405559830081</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.78954567659093</v>
+        <v>27.1830125622437</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>53.8087942213914</v>
+        <v>75.54071686622345</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>61.08464038279342</v>
+        <v>82.59681372573601</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.6034857456283</v>
+        <v>54.44383350064919</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.06741290243892</v>
+        <v>33.23467013927989</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>46.71422605567327</v>
+        <v>40.48346573145889</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50.36184607900657</v>
+        <v>51.20282411869493</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.30682137996006</v>
+        <v>8.480538264739199</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.86441462283219</v>
+        <v>45.24799502798152</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>48.84319100282002</v>
+        <v>55.92356900396322</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>18.42630518255274</v>
+        <v>14.56963950442358</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.51766407144349</v>
+        <v>35.37067961170099</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.22692829945586</v>
+        <v>46.37113496172081</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>14.72248352002887</v>
+        <v>7.691417811105833</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.75113935505899</v>
+        <v>39.28472319259409</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>39.74349859588222</v>
+        <v>48.29544333004166</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.52339353998423</v>
+        <v>7.568344012589012</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.43732656761748</v>
+        <v>55.81364736715152</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>51.13974130641314</v>
+        <v>71.95265228001915</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.49436983411722</v>
+        <v>62.55914466057938</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>58.27352958012618</v>
+        <v>71.12145716723606</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.05985853340293</v>
+        <v>83.47440237987274</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.69766508914629</v>
+        <v>17.36875935862373</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>52.68111327020781</v>
+        <v>63.92851609754227</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>59.98082151374474</v>
+        <v>78.40093545656481</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1.109823211710294</v>
+        <v>10.46781781716846</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.32360018511184</v>
+        <v>12.34751547139771</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.49015406497986</v>
+        <v>20.60839519890776</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1.907021796497013</v>
+        <v>-0.3254086884633907</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.01320920578836</v>
+        <v>14.01987960076342</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.44697604940094</v>
+        <v>17.34698268701099</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.897093140055847</v>
+        <v>4.962880258303656</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>24.95660264095386</v>
+        <v>30.41226523281202</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.09049639860356</v>
+        <v>34.00132598554136</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.30932853252481</v>
+        <v>17.80378139380448</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.04309952436565</v>
+        <v>24.03280307239867</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>38.29274487809207</v>
+        <v>24.48863552667215</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>8.549487704211309</v>
+        <v>9.7004264870579</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.25815908910486</v>
+        <v>11.07507982870014</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.09238497550088</v>
+        <v>21.0709348029467</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>4.341491176750682</v>
+        <v>11.51285031204489</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.85737753049327</v>
+        <v>19.26973363688656</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.07009875090719</v>
+        <v>23.66695477513098</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.4183090280808743</v>
+        <v>-2.66558865875075</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18.61255912272169</v>
+        <v>8.209754506135297</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.11087230666202</v>
+        <v>12.43267785824862</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.52551358906494</v>
+        <v>-2.338454945198258</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.91110410699505</v>
+        <v>23.01329493235816</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2.69786950345551</v>
+        <v>10.43720091920856</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.00092763387609</v>
+        <v>20.45229044906414</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.16102151698012</v>
+        <v>25.2877582800307</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-0.2003147428432559</v>
+        <v>1.192203864974978</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.81978658104107</v>
+        <v>27.55145137004236</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.24777278579008</v>
+        <v>28.95520659606356</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.727062012991336</v>
+        <v>5.943780328278777</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.8748059029047</v>
+        <v>44.23491581239463</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.001840536995</v>
+        <v>44.76057364038213</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.15415265807796</v>
+        <v>41.43514085113455</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.90601533861039</v>
+        <v>46.98791620590743</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>40.15856443687962</v>
+        <v>48.05397832342415</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>10.2643482158464</v>
+        <v>15.99810088217608</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.09962325384154</v>
+        <v>32.33598763321281</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>37.91863984827463</v>
+        <v>38.08911903550152</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>5.939835045255494</v>
+        <v>12.46147744268019</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>23.54506872413533</v>
+        <v>29.63345459507743</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.75234453720396</v>
+        <v>32.80510180782181</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2.133431958238186</v>
+        <v>0.1325887171035376</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.42749868752329</v>
+        <v>26.36447906900066</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>24.92096961232713</v>
+        <v>30.2590651600232</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.36524408072168</v>
+        <v>2.855330670283557</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.83915395715985</v>
+        <v>44.3170529540035</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2.993095786337197</v>
+        <v>3.78234303279045</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.30242246340826</v>
+        <v>14.56012446517308</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.46131765832949</v>
+        <v>20.91833079817418</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.1307998473715433</v>
+        <v>-1.456556356994163</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.15878085727593</v>
+        <v>25.10254020864178</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.58625771095276</v>
+        <v>28.3957675488217</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.07274092322906</v>
+        <v>2.938307864908822</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.22673525212524</v>
+        <v>42.06213743223826</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.35246205612192</v>
+        <v>44.47631044293784</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.49010854863577</v>
+        <v>41.96389247415058</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>37.23938910468479</v>
+        <v>46.34687761122517</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>40.49351046763585</v>
+        <v>50.04210438478322</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.58214308048016</v>
+        <v>7.967244033935835</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.43299009280764</v>
+        <v>27.02423056875885</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>38.24770367043226</v>
+        <v>34.58629191850065</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>6.233708446611508</v>
+        <v>5.453397044026012</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.84481770178041</v>
+        <v>23.4563250774024</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.05112320161346</v>
+        <v>29.10095052432894</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>2.463026025423781</v>
+        <v>-4.203100169036702</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.76455520382273</v>
+        <v>22.57329464744243</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.25771436842996</v>
+        <v>29.28409782956689</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>12.70927821387877</v>
+        <v>-1.303573386854012</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.18902987072786</v>
+        <v>41.32925088277147</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2.017451376153163</v>
+        <v>0.6823109445114852</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.30415540027344</v>
+        <v>10.68283472394251</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.47599286948815</v>
+        <v>20.98238719646249</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.91711221265217</v>
+        <v>-0.4349948137706896</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.08313399134184</v>
+        <v>24.31044046421682</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.52392228732717</v>
+        <v>30.74518251557274</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>8.964763620205048</v>
+        <v>2.058410878679862</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.09650796285209</v>
+        <v>38.55410535462688</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.23534159626832</v>
+        <v>45.01541576164835</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.40788201090203</v>
+        <v>35.2298731595266</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>36.16021634237416</v>
+        <v>40.1635954788053</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>39.41936231275705</v>
+        <v>45.24409841988497</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.544910437395604</v>
+        <v>4.905971654789006</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.35740617416225</v>
+        <v>22.03059008730582</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>37.19581672457034</v>
+        <v>35.08474336129034</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.256084858764075</v>
+        <v>1.57952222294324</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.84507610904958</v>
+        <v>18.92382421112366</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.0637739329808</v>
+        <v>27.14237670932626</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1.412558805272675</v>
+        <v>-4.33960294140698</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>19.68689432794902</v>
+        <v>18.58068065860477</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.1928793453831</v>
+        <v>27.45091584294122</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.59836628276835</v>
+        <v>-4.565697053372922</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.05640121343485</v>
+        <v>34.09181161963174</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.08583408920602</v>
+        <v>29.21144720336969</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.62501361975026</v>
+        <v>17.13740184196507</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>37.83890496584917</v>
+        <v>28.05485502131194</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>41.30535149686515</v>
+        <v>30.61314233110944</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.22981515018417</v>
+        <v>3.905069222832935</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.75770370291677</v>
+        <v>17.99943123615979</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>39.359613911823</v>
+        <v>23.83730251634005</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>12.46724486283638</v>
+        <v>13.88488985387217</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.83965615426519</v>
+        <v>22.99682856103919</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.27081906066072</v>
+        <v>32.14140618423269</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>8.951578747393832</v>
+        <v>-5.453386708751484</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.22000599679898</v>
+        <v>9.522489087026738</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.85652745656343</v>
+        <v>16.00435373167489</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.75656203750998</v>
+        <v>-3.207589466190946</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.96165453893892</v>
+        <v>29.15602764763148</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.39577170503938</v>
+        <v>41.28860395708436</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>41.71452675886954</v>
+        <v>28.89671537103997</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>50.03807500422182</v>
+        <v>40.90294533363635</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.62590716590312</v>
+        <v>46.79249425219965</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.24822729561431</v>
+        <v>3.383477376594602</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.27984605439465</v>
+        <v>25.18400269210972</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.16068771101221</v>
+        <v>36.25115339220682</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.00804953126423</v>
+        <v>50.15903646232839</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.4755704268737</v>
+        <v>44.47105476133002</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.70706992245089</v>
+        <v>52.32956310072991</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>43.17684513628421</v>
+        <v>54.99040049718506</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>12.95341579666444</v>
+        <v>15.10216980861034</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.60901048083117</v>
+        <v>47.86931563101687</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>41.19660129905219</v>
+        <v>50.73537411228644</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>14.12269380010893</v>
+        <v>18.32209550197739</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.58562263409812</v>
+        <v>38.09996580369668</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>37.01054169125881</v>
+        <v>43.00014655473917</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.72565673867744</v>
+        <v>3.300503146055945</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.09531821579694</v>
+        <v>36.89949854878228</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.7261035654639</v>
+        <v>39.21109777666246</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.66151151771297</v>
+        <v>8.405241998673223</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>40.95605752466147</v>
+        <v>59.07361093895129</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>45.38359921498071</v>
+        <v>65.98395264768109</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>43.63157543346556</v>
+        <v>68.21973475942795</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>51.97233583930924</v>
+        <v>74.73655584800316</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>55.56325458405621</v>
+        <v>79.69741539066686</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>23.03573512535908</v>
+        <v>25.41234221996611</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.19513278416344</v>
+        <v>67.53436807738709</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>53.06241358828616</v>
+        <v>71.51099681845213</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.35684949555806</v>
+        <v>50.22854822010164</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>31.80858814777768</v>
+        <v>40.51142300355556</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.03700164454308</v>
+        <v>46.82422254701511</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>43.508164429989</v>
+        <v>52.90890882310192</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.26954061610308</v>
+        <v>6.656240125784635</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>34.94002580132915</v>
+        <v>43.0440481603039</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>41.52376750670762</v>
+        <v>48.1970904052016</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.42970013050863</v>
+        <v>11.84907205307114</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.89831287194265</v>
+        <v>33.49503313603583</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>37.32167235918006</v>
+        <v>40.01848034763218</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.06864751425538</v>
+        <v>-0.1860687600337947</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>30.44547247709152</v>
+        <v>35.375001154156</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.07538573263334</v>
+        <v>39.47514493142567</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.01944346585888</v>
+        <v>5.467537927667209</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>41.31967396104993</v>
+        <v>58.59642050070767</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>45.74552594451428</v>
+        <v>67.30923922996102</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>43.97746118673533</v>
+        <v>68.67983356230525</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>52.31496076322664</v>
+        <v>73.29619650878136</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>55.90710365817832</v>
+        <v>81.49428400348931</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.36515184174454</v>
+        <v>18.46990838302471</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>46.53840649582354</v>
+        <v>66.06441435946272</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>53.40158800911991</v>
+        <v>71.75452775162634</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>33.23676811344576</v>
+        <v>45.41630311005397</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.72500503546051</v>
+        <v>24.77802180465675</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>38.9576509517438</v>
+        <v>32.48591600448596</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>42.43393195939455</v>
+        <v>41.12186843494246</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>12.23014314698646</v>
+        <v>0.7013038682738468</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.86303471432647</v>
+        <v>34.15984377340591</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.4694720674245</v>
+        <v>43.11580768740527</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.43697409575567</v>
+        <v>9.738694002554622</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.88440882187731</v>
+        <v>32.28650995511433</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.32104909456379</v>
+        <v>42.59771552203155</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>10.00292440920521</v>
+        <v>0.6955461605277229</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.35373703442421</v>
+        <v>33.2427575225613</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.9972852031304</v>
+        <v>41.44531363316196</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>21.89279689324293</v>
+        <v>3.089473330075872</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>40.1722125730134</v>
+        <v>53.71687790483644</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>44.61153242191705</v>
+        <v>66.81630403914629</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.88070452120481</v>
+        <v>57.31784331458925</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>51.22281540581994</v>
+        <v>65.22442710648171</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>54.82063768109515</v>
+        <v>77.1410236525055</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.30986368105504</v>
+        <v>10.92009925863741</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>45.44833145859877</v>
+        <v>57.72230243325387</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>52.33429281425907</v>
+        <v>70.02578561582051</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.52772756835105</v>
+        <v>13.27334327521071</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>43.9939167036217</v>
+        <v>18.7405500957715</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>48.05913348467728</v>
+        <v>27.08962999438191</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.93967387954444</v>
+        <v>0.1812260664118241</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>42.15894265772322</v>
+        <v>20.37715829296409</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>46.52791609079933</v>
+        <v>24.14712525291005</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>35.36867974283025</v>
+        <v>4.940061041533887</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>52.68391334524696</v>
+        <v>36.742415892673</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>56.69999818410037</v>
+        <v>41.28240101264453</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>53.28375809883094</v>
+        <v>21.1972095602315</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>61.20091319954665</v>
+        <v>29.17767345948889</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>64.35194380705107</v>
+        <v>30.43398658297821</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.39389824307986</v>
+        <v>15.40254362311492</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>55.37183605561593</v>
+        <v>18.52626648122637</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>62.17487293757461</v>
+        <v>30.49575811811729</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.41966942709934</v>
+        <v>19.30080617781807</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>47.17644419401057</v>
+        <v>28.87453585844013</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>51.26748403303065</v>
+        <v>31.94463026546173</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.92151990167466</v>
+        <v>2.378678120706567</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>44.39739142923045</v>
+        <v>16.43750793428747</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>48.81309478594486</v>
+        <v>19.49218288449719</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>37.64755119213731</v>
+        <v>0.7207498020322483</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.27819572021841</v>
+        <v>29.72505533510115</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.15140952461666</v>
+        <v>16.67316589574299</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>45.70695989080313</v>
+        <v>31.41785323834918</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>49.76491436448948</v>
+        <v>35.48180666364584</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.68110122816898</v>
+        <v>4.926174673525182</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>44.00022140484225</v>
+        <v>38.13220983389076</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>48.36246942165226</v>
+        <v>39.3289825690814</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>37.23616131105651</v>
+        <v>9.695630350247399</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>54.63978112930219</v>
+        <v>55.67215781090498</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>58.64817258007883</v>
+        <v>56.36481905833119</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>55.16518700789273</v>
+        <v>51.35254355700712</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>63.10062943436149</v>
+        <v>58.74055797993481</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>66.25350269432288</v>
+        <v>59.79940859825924</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.14511248206833</v>
+        <v>27.3954807844104</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>57.24906905039364</v>
+        <v>47.06890477179809</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>64.03601347229254</v>
+        <v>53.87391862326344</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>31.05270234889893</v>
+        <v>24.41915185675484</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>48.89888203710862</v>
+        <v>44.58976529648775</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>52.98354122507207</v>
+        <v>45.43315034949831</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>27.67039118218311</v>
+        <v>9.361129674426717</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>46.24604440526782</v>
+        <v>39.77506816980063</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>50.65579514412811</v>
+        <v>41.64425942347252</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>39.5237297715374</v>
+        <v>11.12172014851146</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>57.24282234918149</v>
+        <v>57.71280282204848</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.43089576822855</v>
+        <v>9.819804813282541</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>45.99245801931754</v>
+        <v>25.56571591189871</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>50.04929249382599</v>
+        <v>31.16717591798514</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.99568865067546</v>
+        <v>2.434464675489675</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>44.32230207581777</v>
+        <v>35.90938483139543</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>48.68409816677472</v>
+        <v>39.0975812475892</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>37.56451644324741</v>
+        <v>6.99939155498015</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>54.97415295520254</v>
+        <v>54.05372374792284</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>58.98131749533226</v>
+        <v>56.64638189867975</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>55.4851224157187</v>
+        <v>52.85251014220256</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>63.41783944800409</v>
+        <v>59.05271275795057</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>66.57226730045048</v>
+        <v>62.68441902959677</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.44708893259889</v>
+        <v>19.8714114622446</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>57.56619399733937</v>
+        <v>42.66574105175715</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>64.34892770361681</v>
+        <v>51.27916457411363</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.33113913220713</v>
+        <v>17.20319097351978</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>49.1829726650768</v>
+        <v>38.55927379279663</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>53.2667185334392</v>
+        <v>41.93488815313407</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.98378213586739</v>
+        <v>5.187571545658727</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>46.56655136387926</v>
+        <v>36.34234567822115</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>50.97601716426544</v>
+        <v>41.19401638569852</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>39.85078105913995</v>
+        <v>7.298385057751631</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>57.57551650360215</v>
+        <v>55.45947732782381</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>27.47968172856569</v>
+        <v>6.059881059691342</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>45.01898411505053</v>
+        <v>20.79625795169648</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>49.08911957693784</v>
+        <v>30.64469696539227</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.97363409826858</v>
+        <v>4.020126915802361</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>43.27304643714277</v>
+        <v>35.46464739556301</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>47.64866014573988</v>
+        <v>42.05290773511603</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.48356163892058</v>
+        <v>6.149771728289586</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>53.87126943189799</v>
+        <v>50.38269712702308</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>57.89188853116796</v>
+        <v>57.13626971171255</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>54.42762965436843</v>
+        <v>44.3525304145579</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>62.36355732658505</v>
+        <v>51.08933211162689</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>65.52355698193583</v>
+        <v>56.82086046241838</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.43454392814155</v>
+        <v>15.36824467839358</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>56.51603184916563</v>
+        <v>35.58158849410013</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>63.32307142864459</v>
+        <v>50.31232324777298</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.37815532865182</v>
+        <v>12.89043983258773</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>48.20823239828113</v>
+        <v>33.56893635609374</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>52.30478576671837</v>
+        <v>40.1976112885727</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.95940242328467</v>
+        <v>5.932288898900925</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>45.51549549821325</v>
+        <v>33.22119986383414</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>49.93837958674492</v>
+        <v>41.0627328235798</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>38.767189804594</v>
+        <v>4.081995402533064</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>56.47053018811107</v>
+        <v>48.26370757200837</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>59.31372185341998</v>
+        <v>35.71425111665672</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>55.28063460532203</v>
+        <v>24.56877765327155</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>63.65301982804282</v>
+        <v>35.96039432616445</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>67.0022623478407</v>
+        <v>39.04439580257914</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>36.71374118120509</v>
+        <v>11.62348330474188</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>58.48911345559308</v>
+        <v>28.58767495242654</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>65.0402326284572</v>
+        <v>34.63911322844402</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.53356244443123</v>
+        <v>18.71074485603063</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>54.07080756926945</v>
+        <v>27.53144479327192</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>58.40041275998566</v>
+        <v>35.08955331969259</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.35362236986595</v>
+        <v>-2.117554881636252</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>51.82714276567052</v>
+        <v>13.9016625447115</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>56.39752228701288</v>
+        <v>19.22404295029911</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>45.6013263799299</v>
+        <v>-2.042197293616344</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>63.97384192508645</v>
+        <v>31.09725068642644</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>68.29123912397425</v>
+        <v>43.41654859380976</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>65.1551149146714</v>
+        <v>31.85673731356247</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>73.67529228719188</v>
+        <v>45.16910903939675</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>77.1460168984397</v>
+        <v>50.2643151450946</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>44.67830536107085</v>
+        <v>8.396013927318648</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>67.834819107472</v>
+        <v>30.09059971716901</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>74.67262104641406</v>
+        <v>41.87270123187963</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>61.27155158989413</v>
+        <v>62.32111634165234</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>57.16679732993999</v>
+        <v>60.18982874811418</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>65.55690194857226</v>
+        <v>68.11304142898142</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>68.90836043631748</v>
+        <v>70.45119137159639</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>38.47267560919282</v>
+        <v>30.32214878979192</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>60.37511132255626</v>
+        <v>67.32223814670668</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>66.91088007571905</v>
+        <v>69.40187196387841</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>37.21574236240418</v>
+        <v>27.03876613520007</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>55.84345249610011</v>
+        <v>47.70236205040396</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>60.16613173544405</v>
+        <v>49.92017843491359</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>34.15331396431934</v>
+        <v>10.23914041245903</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>53.72788564045249</v>
+        <v>45.84273581707586</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>58.29170859453486</v>
+        <v>46.14425074232827</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>47.53401487130613</v>
+        <v>14.01739477101014</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>65.99600369960456</v>
+        <v>67.03463570903772</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>70.3061204440651</v>
+        <v>72.94705228042861</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>67.09948419158054</v>
+        <v>78.74212515715584</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>75.63711528998262</v>
+        <v>86.05016215175294</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>79.10988420148982</v>
+        <v>89.05066274378706</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>46.49314549653862</v>
+        <v>37.05927680796185</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>69.77680135612012</v>
+        <v>80.56529040679672</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>76.60021821321568</v>
+        <v>84.11425018175127</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>61.60323075171627</v>
+        <v>63.17068530133563</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>57.48415902350705</v>
+        <v>57.25528989091819</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>65.8710548954687</v>
+        <v>63.61090142577882</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>69.22389958142655</v>
+        <v>69.35978903169874</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>38.77335509813172</v>
+        <v>22.66332853518295</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>60.69030230738352</v>
+        <v>63.84054508742852</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>67.22227887401024</v>
+        <v>68.16162478551405</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>37.50735230907153</v>
+        <v>20.58480914247211</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>56.14052689642127</v>
+        <v>43.33562068622336</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>60.46175049595688</v>
+        <v>47.25029484714468</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>34.48012924750668</v>
+        <v>6.980058602346872</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>54.06151710469006</v>
+        <v>44.56871020674132</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>58.62454983067553</v>
+        <v>46.84325447576695</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>47.87500411966055</v>
+        <v>11.48619330527348</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>66.34248077605555</v>
+        <v>67.24873203729069</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>70.65101597686044</v>
+        <v>75.00166710854107</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>67.4297091819962</v>
+        <v>80.20960085800934</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>75.96394890455225</v>
+        <v>85.51046426057013</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>79.43791837909848</v>
+        <v>91.63813159102456</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>46.80708245617825</v>
+        <v>30.94599196609654</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>70.10426903758037</v>
+        <v>80.23295834416501</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>76.92369365913483</v>
+        <v>85.46922449727032</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>60.51119045295738</v>
+        <v>58.98999967544007</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>56.42563818473302</v>
+        <v>39.71680292167517</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>64.81693193515048</v>
+        <v>47.80543712061254</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>68.17545456152655</v>
+        <v>57.07451435573998</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>37.75889387610951</v>
+        <v>15.38642879424182</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>59.63899793063542</v>
+        <v>53.68664633260856</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>66.19434486081562</v>
+        <v>62.43539830146171</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>36.54016887296257</v>
+        <v>18.28348323776972</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>55.15244204004514</v>
+        <v>41.56589784786547</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>59.48722899014382</v>
+        <v>49.998454144059</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.44126534576164</v>
+        <v>9.012816145716716</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>52.99709094080999</v>
+        <v>43.19270270564049</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>57.57418710121273</v>
+        <v>50.38987456913875</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>46.77647684476543</v>
+        <v>9.513200666903394</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>65.22337343005948</v>
+        <v>62.33362485548845</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>69.54564384709282</v>
+        <v>75.14736457551879</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>66.35865060558983</v>
+        <v>67.15291802007665</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>74.89765262347589</v>
+        <v>76.09766127397782</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>78.37780795352197</v>
+        <v>87.08141785744775</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>45.77752975329769</v>
+        <v>22.52732607940107</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>69.04040922210305</v>
+        <v>70.2618304966248</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>75.88316138936204</v>
+        <v>82.88632342052121</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>0.9758236035828052</v>
+        <v>12.36368931211588</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.91238336540433</v>
+        <v>11.3973971817528</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.95628174790748</v>
+        <v>17.04359683676155</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2.312614630105233</v>
+        <v>-0.3058002984036747</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.21997031060846</v>
+        <v>7.036927390242216</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.5383254097796</v>
+        <v>9.441600209432004</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.72497227781273</v>
+        <v>3.804435602065883</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.51550595176948</v>
+        <v>20.97888102050813</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.52243565817511</v>
+        <v>23.3218444301035</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.77731538794151</v>
+        <v>11.28618961452175</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>32.02724371067952</v>
+        <v>16.4143092723637</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>35.24548585607941</v>
+        <v>16.72287079338991</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.354683550088041</v>
+        <v>7.752108802073209</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.54476933641838</v>
+        <v>7.119959150403979</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.0994374537349</v>
+        <v>13.04025738131423</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>4.349702349337085</v>
+        <v>12.67697568478724</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.59002324202519</v>
+        <v>17.43347867120185</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.70803047506632</v>
+        <v>21.95395030532016</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.2387407224414169</v>
+        <v>0.5748063982319387</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.0481669691305</v>
+        <v>6.011519651933838</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.46027933643034</v>
+        <v>10.96162087715077</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>9.597762538167359</v>
+        <v>-0.132190276634951</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.71495626113125</v>
+        <v>17.61611047216769</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.503718214431478</v>
+        <v>12.14129121815025</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.52525119643313</v>
+        <v>19.091173205553</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.56348992572779</v>
+        <v>21.83448405050427</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-0.670850083505381</v>
+        <v>1.694885080527236</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>15.95678019732711</v>
+        <v>20.51991313518375</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>20.27028776738037</v>
+        <v>21.51923479302535</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.484772831279148</v>
+        <v>5.133405960083493</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.35928470814239</v>
+        <v>34.69339296650456</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.36014268418188</v>
+        <v>34.45905028317221</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.54920177594854</v>
+        <v>33.32779275048266</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.81628398522449</v>
+        <v>38.1567723899625</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.03792216931362</v>
+        <v>39.42461711000313</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.003172039987961</v>
+        <v>13.81571825098119</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.31370130864887</v>
+        <v>27.36543247887146</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.85439582610473</v>
+        <v>29.87520878393189</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>5.887300735563044</v>
+        <v>13.01841416824108</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.2126732670402</v>
+        <v>26.98878864134284</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.3260424880266</v>
+        <v>30.90747629707742</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>1.888448774250827</v>
+        <v>3.498955116275745</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.79287830786477</v>
+        <v>23.61165154630184</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.20109131635193</v>
+        <v>28.92406291578317</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.3668337830598</v>
+        <v>4.901630992486545</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.56810260768017</v>
+        <v>38.19513264289607</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.786917241511131</v>
+        <v>6.287908411919517</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.81465690672232</v>
+        <v>13.75239612012071</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.85196318071522</v>
+        <v>18.09164386989549</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-0.3531624735553631</v>
+        <v>-0.5080054190348662</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.28226097743131</v>
+        <v>18.29432435740129</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.59553629885809</v>
+        <v>21.28351999112848</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.81667891226941</v>
+        <v>2.667000621364238</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.69737392797214</v>
+        <v>32.835660103818</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.69719799698951</v>
+        <v>34.54681709887046</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>26.87166832569272</v>
+        <v>33.64073817395023</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.13625293995015</v>
+        <v>37.3755897074602</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>37.35950380830209</v>
+        <v>41.21698413280329</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.308333221893712</v>
+        <v>6.582723192419856</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.63395536220236</v>
+        <v>22.3463095949481</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.17077030462741</v>
+        <v>26.76328187795328</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>6.168872173484363</v>
+        <v>6.552229587916223</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.50005960479056</v>
+        <v>21.06551699614789</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.61270399493824</v>
+        <v>27.5284003999401</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.204319559717008</v>
+        <v>-0.5901804813559863</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.11612595976993</v>
+        <v>19.76403475044607</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>23.52428216824689</v>
+        <v>28.01067863923141</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>11.69677832839585</v>
+        <v>1.04402893778277</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.90382372329623</v>
+        <v>35.21988924279817</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>1.846655221422124</v>
+        <v>3.45017554816458</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.85203412428608</v>
+        <v>9.66199045007486</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.90153399270755</v>
+        <v>17.62985770135695</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-1.363526929098435</v>
+        <v>-0.2101438243504887</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.2445314719206</v>
+        <v>16.40775935426607</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.5702812087769</v>
+        <v>22.23051043210185</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>7.748091175994096</v>
+        <v>1.197132705963675</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.60677967268451</v>
+        <v>28.31942211362028</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>27.61896622599301</v>
+        <v>33.82252025025162</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.82815641363667</v>
+        <v>26.52543955995695</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.09547387343122</v>
+        <v>30.49042826567536</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.32336045151022</v>
+        <v>35.51306864428592</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.308288027553829</v>
+        <v>3.389429444561671</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.5964892388891</v>
+        <v>16.85677609054523</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.15568097835682</v>
+        <v>26.15517400940627</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.227308156627227</v>
+        <v>3.244284493352868</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>21.53663234833262</v>
+        <v>16.47465684690786</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.6609677547148</v>
+        <v>25.17848230048009</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1.192162268633145</v>
+        <v>-1.150025177818478</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.07713952468824</v>
+        <v>15.0067497321449</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>22.49733357428626</v>
+        <v>25.03381953053123</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>10.6260637076444</v>
+        <v>-2.418458971242089</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.81162699578252</v>
+        <v>27.30326109244368</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.79183751397402</v>
+        <v>24.67428362127177</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.36211623219523</v>
+        <v>13.96146859395762</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.07404057187797</v>
+        <v>23.75238613122066</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.50729358639826</v>
+        <v>26.88651026326191</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>10.2338686737138</v>
+        <v>4.064699151946627</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.21800979888042</v>
+        <v>13.68242215348424</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>36.59624706497056</v>
+        <v>19.03919972652071</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>12.31153502629049</v>
+        <v>14.8171923833822</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.39679011279075</v>
+        <v>20.99508959910023</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.72008496005643</v>
+        <v>29.46901013507499</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>8.568935128167785</v>
+        <v>-3.501091678673848</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.43545872487313</v>
+        <v>6.156081539027706</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.97654603371299</v>
+        <v>12.96043132491434</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.5795175821287</v>
+        <v>-1.86809054228026</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.50610698346175</v>
+        <v>22.89706257898699</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.82704300681809</v>
+        <v>34.77925246443385</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.11274416108405</v>
+        <v>24.66015133574104</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>46.94104840196072</v>
+        <v>34.49508483475243</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>50.50120711186572</v>
+        <v>42.22805348855157</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.99251923134419</v>
+        <v>3.843615927279004</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.44128423833217</v>
+        <v>20.13422768757168</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.08849366940346</v>
+        <v>30.58523999938666</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.63994612535367</v>
+        <v>45.48815071716935</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.13952657680094</v>
+        <v>39.41225072687816</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>36.86813872756171</v>
+        <v>46.66303745501045</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.30519390710977</v>
+        <v>50.42555085890245</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>11.89061257138049</v>
+        <v>14.42026213589092</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.99631400887374</v>
+        <v>41.8766994184507</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.36147368566594</v>
+        <v>45.24402022244901</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>13.90559687364399</v>
+        <v>20.01586488715016</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.07703075977401</v>
+        <v>36.60815152284486</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.39491880450623</v>
+        <v>41.627736402</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>10.27677463577035</v>
+        <v>6.47867284893017</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.23967731185028</v>
+        <v>33.92304167634555</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>32.77600109196787</v>
+        <v>37.46762079073682</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>21.41289477062764</v>
+        <v>10.88693818072641</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>38.42465248003489</v>
+        <v>53.31487506988021</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.73983743750579</v>
+        <v>60.81742128124671</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>40.95565029759522</v>
+        <v>63.22247005887688</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>48.80029572876106</v>
+        <v>68.24954663577158</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>52.36400995800101</v>
+        <v>75.6607060420227</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>21.71225473434612</v>
+        <v>26.08491101825191</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>43.28259097917581</v>
+        <v>61.71563460599003</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.91744812989987</v>
+        <v>66.26975427688515</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.97484412887969</v>
+        <v>45.62861587961547</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.45882736206046</v>
+        <v>35.27098980054237</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.18445199817469</v>
+        <v>41.03520088407586</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.62294118988905</v>
+        <v>48.18857725547943</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.19381648118607</v>
+        <v>6.52069828042502</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.3139568262937</v>
+        <v>37.00322850305002</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>38.67564778209277</v>
+        <v>42.78958931659037</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>14.19997337008625</v>
+        <v>14.12546811165975</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.37703022302479</v>
+        <v>32.24817589046367</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.69363607448557</v>
+        <v>39.06124632124565</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.60569879308489</v>
+        <v>3.192031241173421</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.57568385758528</v>
+        <v>32.221005494346</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>33.1114209484679</v>
+        <v>37.77643010707509</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>21.75638985180536</v>
+        <v>8.19153271347755</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>38.77376575312402</v>
+        <v>52.73239092753775</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.08754664751913</v>
+        <v>62.22186133585011</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>41.28751467320137</v>
+        <v>63.27101541866459</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>49.12900726463344</v>
+        <v>66.50200559466184</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>52.69399958349057</v>
+        <v>77.16794371918132</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.02841774211893</v>
+        <v>19.58215918105032</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>43.61217982205968</v>
+        <v>60.01129490094026</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>50.24334047304932</v>
+        <v>66.48484858093815</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.89449811592154</v>
+        <v>39.84915711453847</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.41465930365347</v>
+        <v>19.86927963543055</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.14415034007347</v>
+        <v>26.61529577319243</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.58737477653204</v>
+        <v>36.0327549954569</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.19232418065767</v>
+        <v>0.8917735974961687</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.27574179276927</v>
+        <v>27.85682587410632</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.65891094227416</v>
+        <v>36.93900966735119</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>13.24316847395569</v>
+        <v>11.19711411148872</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.3993101934436</v>
+        <v>29.5001794142789</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.72845054334109</v>
+        <v>39.80423131324433</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>9.578197075325722</v>
+        <v>2.376518624098349</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.52253293945648</v>
+        <v>27.99401343772906</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.07107728666038</v>
+        <v>37.26083015911059</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>20.66980192041014</v>
+        <v>4.151757192876389</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.66660712615416</v>
+        <v>45.60839880209375</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>41.99311167249117</v>
+        <v>59.21679830361936</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>40.22991687274653</v>
+        <v>50.45721398420844</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>48.07564125203494</v>
+        <v>56.46600652772734</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>51.64594591540146</v>
+        <v>70.6006428322753</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>21.01090017558708</v>
+        <v>11.0520802587179</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>42.56071853101906</v>
+        <v>50.03567829095877</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.21343990624821</v>
+        <v>62.57811437891176</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-33.25492252177436</v>
+        <v>18.63661461983788</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-12.30265241662812</v>
+        <v>22.94720312664312</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-7.243287174841056</v>
+        <v>32.6164859855331</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-37.91856216639268</v>
+        <v>12.38624785549485</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-16.10350479573506</v>
+        <v>34.18651694699948</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-10.66952517430524</v>
+        <v>38.47597682083838</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-27.27424338021962</v>
+        <v>11.69558905436104</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-6.511620235142153</v>
+        <v>42.61823663297719</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-1.496405775577026</v>
+        <v>48.40733908657644</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-0.1450010949837992</v>
+        <v>27.82234866831836</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.396391181592918</v>
+        <v>35.34608435468467</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>13.39384468253226</v>
+        <v>36.40208579473214</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-21.62544906058759</v>
+        <v>23.59093207207918</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>3.723511694093477</v>
+        <v>24.72460395762662</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>11.94071145685756</v>
+        <v>39.79759053793513</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-28.45395086512188</v>
+        <v>21.66071383043723</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-7.102060892358802</v>
+        <v>27.64279330104931</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-1.994280153675255</v>
+        <v>31.61188216586168</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-34.2331996011029</v>
+        <v>15.46036013136935</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-12.04863852852208</v>
+        <v>27.04614829957</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-6.541208700268948</v>
+        <v>29.64683039686884</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-23.14954592253792</v>
+        <v>3.658083758085041</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-1.958250162263883</v>
+        <v>28.89941050295997</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-31.38551233069369</v>
+        <v>21.56866800512184</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-10.32590177539363</v>
+        <v>34.97384362340516</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-5.273762942966268</v>
+        <v>40.30678999396065</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-35.90877298470932</v>
+        <v>16.79282422973111</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-13.97389265277847</v>
+        <v>51.33106139574345</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>-8.546241119830892</v>
+        <v>52.99903971409414</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-25.11580491237036</v>
+        <v>16.06577814456946</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-4.247039988446573</v>
+        <v>60.95838716499397</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>0.7604541955648969</v>
+        <v>62.9073743349538</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>2.038160856924657</v>
+        <v>58.02958368031973</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>11.60106344785413</v>
+        <v>64.95951460519964</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>15.60210706980476</v>
+        <v>65.47580844350648</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-19.59783706524624</v>
+        <v>36.28054361916988</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>5.902672814804449</v>
+        <v>53.80929955058519</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>14.10257407707987</v>
+        <v>63.62070865694547</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-26.5705656522149</v>
+        <v>26.3699066506014</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>-5.111181108161032</v>
+        <v>42.62213450843983</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>-0.009473710921772849</v>
+        <v>44.31335169706637</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-32.21159125596458</v>
+        <v>22.32208512156723</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-9.907185472323819</v>
+        <v>49.75141833703803</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>-4.405024969645766</v>
+        <v>51.16550759678575</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-20.97762726484694</v>
+        <v>13.90196717272888</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>0.3199879016731684</v>
+        <v>56.37783417313717</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-31.00995468147242</v>
+        <v>14.25079765463725</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-9.943060878990966</v>
+        <v>28.66590273800166</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-4.891993022104685</v>
+        <v>35.46737115185451</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-35.48966250702227</v>
+        <v>13.82701698344222</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-13.5456510635612</v>
+        <v>48.57993152592977</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-8.118250306695826</v>
+        <v>52.20674861688933</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-24.67804322537859</v>
+        <v>12.9435446128611</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-3.801994131731464</v>
+        <v>58.92594645976368</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1.204297163196484</v>
+        <v>62.70738714973232</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2.462196071080716</v>
+        <v>59.18871426284231</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.02166675441676</v>
+        <v>64.94139546704051</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>16.0248677853339</v>
+        <v>67.93077656956703</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-19.19630352639758</v>
+        <v>28.4901951864461</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>6.322349132622366</v>
+        <v>49.13193154873861</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>14.51785846114364</v>
+        <v>60.66564454742307</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-26.19703969014172</v>
+        <v>19.15327124071082</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-4.730847677099218</v>
+        <v>36.60345654747555</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>0.3700470573459738</v>
+        <v>40.76532852439038</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-31.79464730502233</v>
+        <v>18.06938912807878</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-9.481619335171764</v>
+        <v>46.21102339593597</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-3.979492357339161</v>
+        <v>50.59046749988083</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-20.54222692297179</v>
+        <v>10.13438752779875</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>0.7621790875708561</v>
+        <v>54.19894373159039</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-32.21844675613742</v>
+        <v>9.437237591425884</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-11.17830894018715</v>
+        <v>23.1166243282095</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-6.111889891080507</v>
+        <v>33.91493005060084</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-36.78527880302114</v>
+        <v>14.80060020396954</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-14.87396178843605</v>
+        <v>47.74495787164601</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-9.430738165507062</v>
+        <v>54.55013841571779</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-26.04828963974574</v>
+        <v>11.33648817021302</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>-5.198595207442166</v>
+        <v>54.79518662967332</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-0.1767532629585791</v>
+        <v>62.39719588873633</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1.125249408552226</v>
+        <v>49.65599165323376</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>10.68896121870336</v>
+        <v>55.92690620491945</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>14.69833280387885</v>
+        <v>61.23359302403908</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-20.47764015817146</v>
+        <v>22.49088459404764</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>4.996041392766875</v>
+        <v>40.72395638713197</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>13.2195649577332</v>
+        <v>58.24544116316495</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-27.40699284406813</v>
+        <v>14.88814212225989</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-5.966918921995738</v>
+        <v>32.06990511786262</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-0.8513037285230585</v>
+        <v>39.29085133283689</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-33.09253027932395</v>
+        <v>19.04660551377308</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-10.81151489372316</v>
+        <v>43.77967072412221</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-5.294108770846471</v>
+        <v>50.97815270959121</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-21.91506236950035</v>
+        <v>7.121757413348195</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-0.6363389857678046</v>
+        <v>47.65829197524621</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>3.098473741535741</v>
+        <v>35.91270117353766</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>3.491542955216074</v>
+        <v>24.09665084630564</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>13.62645361915544</v>
+        <v>33.76813473129175</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.86466552816886</v>
+        <v>37.04641772795928</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-17.62571371995811</v>
+        <v>13.28753777189946</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>8.776257898157651</v>
+        <v>25.57582027260457</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.68858321431276</v>
+        <v>33.19041194974745</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-17.81042020437679</v>
+        <v>20.3964810408926</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>4.506623230154987</v>
+        <v>25.81202246696862</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>9.902380049972617</v>
+        <v>33.73667825238194</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-22.99808008907172</v>
+        <v>12.31580950831656</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>0.4069725863237768</v>
+        <v>26.0018746923849</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>6.1051564294246</v>
+        <v>30.4864962794535</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-9.871357907657179</v>
+        <v>2.590965140780231</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>12.24045766710335</v>
+        <v>32.04911028912908</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>17.63744056313296</v>
+        <v>44.85070397283612</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>18.96583211488195</v>
+        <v>33.86328737019696</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.21243467769979</v>
+        <v>45.61525415096865</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>33.60425041722984</v>
+        <v>50.52843271860064</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-4.640884100898196</v>
+        <v>11.94284173509571</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.45568379873558</v>
+        <v>29.28179412874194</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.74209695091777</v>
+        <v>42.25900231170785</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>5.370157410559538</v>
+        <v>62.00995883649654</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>5.683095621282678</v>
+        <v>59.70626444451388</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.83895164201901</v>
+        <v>65.81714509195812</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.08122563653822</v>
+        <v>67.98750075616941</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-15.58611936728362</v>
+        <v>32.65878771953705</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>10.96887523881321</v>
+        <v>64.53708709575068</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>18.86481424906591</v>
+        <v>68.18864073215829</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-15.85904984259249</v>
+        <v>28.95621644286244</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>6.566853157516174</v>
+        <v>45.83211434538975</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>11.95574606545152</v>
+        <v>48.46734765331536</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-20.90614137391702</v>
+        <v>24.84721646510316</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>2.620385945634947</v>
+        <v>57.50663599580224</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>8.312411754443053</v>
+        <v>57.11706452761663</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>-7.621652556554787</v>
+        <v>18.80569644275771</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>14.59780532438654</v>
+        <v>67.75388933893549</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>19.98751913422053</v>
+        <v>74.23461376179753</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>21.23683945178092</v>
+        <v>81.06077798429342</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.50407391547243</v>
+        <v>86.67665373868572</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>35.89966882664731</v>
+        <v>89.1677981700505</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>-2.524955740173393</v>
+        <v>41.54200007518997</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.72478739995439</v>
+        <v>80.09687964439378</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>33.99590007289631</v>
+        <v>85.02445770879686</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>5.81140866199035</v>
+        <v>62.87490020222067</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>6.103281627048402</v>
+        <v>56.8844224750427</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.25511263442416</v>
+        <v>61.43987900271146</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>20.49934153514286</v>
+        <v>66.89263327640222</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-15.18682558090473</v>
+        <v>25.22413213514353</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>11.38547165653939</v>
+        <v>61.28400258007416</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>19.27754156516975</v>
+        <v>67.0789534863553</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-15.47040824357239</v>
+        <v>22.78709536139049</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>6.96209836126055</v>
+        <v>41.72047562009938</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>12.34948017089213</v>
+        <v>46.04326839184943</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-20.47384454190316</v>
+        <v>21.71297682868823</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>3.060975407747841</v>
+        <v>56.26988325833547</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>8.752306230169772</v>
+        <v>57.88767580565906</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-7.170311149085597</v>
+        <v>16.52014688561966</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>15.05577277954205</v>
+        <v>68.19352869623067</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>20.44381936855742</v>
+        <v>76.50350706811702</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>21.67174603913911</v>
+        <v>82.77830317404737</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.93480102081075</v>
+        <v>86.38685390330042</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>36.33210493980801</v>
+        <v>91.88918188891357</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-2.110465864868106</v>
+        <v>35.81270366519787</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.15543423131413</v>
+        <v>80.04597352176324</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.42236699202348</v>
+        <v>86.62386195440746</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>4.427797145296363</v>
+        <v>59.07864789490532</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>4.76560849739447</v>
+        <v>39.48787910989093</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>14.92312189439226</v>
+        <v>45.86801534603418</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>19.17363419028213</v>
+        <v>55.05084441013055</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-16.46999613343232</v>
+        <v>17.59345311044962</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>10.05829227332227</v>
+        <v>51.25593561064069</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>17.97722538682466</v>
+        <v>61.20871703579832</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-16.69664469399396</v>
+        <v>20.18267258841377</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>5.710764922216367</v>
+        <v>40.00174266353564</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>11.11387540025791</v>
+        <v>48.58895276982835</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-21.78814847307322</v>
+        <v>23.80584265020519</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>1.715973595478065</v>
+        <v>55.34614702766201</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>7.423484788359692</v>
+        <v>61.63038505636628</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-8.560080755015374</v>
+        <v>14.55942860029164</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>13.64129568380202</v>
+        <v>63.65724010641659</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>19.04529670851175</v>
+        <v>76.72207614011569</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>20.32003915860179</v>
+        <v>69.51685149000541</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.58908393080484</v>
+        <v>76.87860760462485</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>34.99335956061807</v>
+        <v>87.44157855253152</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-3.410907457666639</v>
+        <v>26.85289978491532</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>24.81407343656785</v>
+        <v>69.94059267060595</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.10793371173839</v>
+        <v>83.52749806104372</v>
       </c>
     </row>
   </sheetData>
